--- a/Klasa 4/Zeszyt1.xlsx
+++ b/Klasa 4/Zeszyt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\Strony Internetowe\lokalne-systemy-bazy-danych\Klasa 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16D47A2-64EA-476E-BDF1-0F9D2BAD5C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16894EF-6F17-4BCD-B049-DE5244A5AAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73FF9202-0205-4B54-9FCF-56B13495C427}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{73FF9202-0205-4B54-9FCF-56B13495C427}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,31 +36,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ulica</t>
-  </si>
-  <si>
-    <t>miejscowosc</t>
-  </si>
-  <si>
-    <t>kod_pocztowy</t>
-  </si>
-  <si>
-    <t>kraj</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>);</t>
   </si>
   <si>
-    <t>INSERT INTO `lokalizacja`(`Ulica`, `Miejscowosc`, `Kod_pocztowy`, `Kraj`) VALUES (</t>
+    <t>Białystok</t>
+  </si>
+  <si>
+    <t>Toruń</t>
+  </si>
+  <si>
+    <t>Rzeszów</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>id_lokalizacja</t>
+  </si>
+  <si>
+    <t>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES (</t>
+  </si>
+  <si>
+    <t>Adres Zamieszkania</t>
+  </si>
+  <si>
+    <t>Numer Telefonu</t>
+  </si>
+  <si>
+    <t>Adres e-mail</t>
+  </si>
+  <si>
+    <t>id_stanowisko</t>
+  </si>
+  <si>
+    <t>wynagrodzenie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,17 +91,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <sz val="12"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="238"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,14 +119,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,48 +481,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394932F4-44BC-4355-8BFC-AE6CD8593D45}">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="102" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="66" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="143" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="66" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>_xlfn.CONCAT(L1,"'",C1,"'",M1)</f>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Adres Zamieszkania');</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="str">
-        <f>_xlfn.CONCAT(J1,"'",B1,"','",C1,"','",D1,"','",E1,"'",K1)</f>
-        <v>INSERT INTO `lokalizacja`(`Ulica`, `Miejscowosc`, `Kod_pocztowy`, `Kraj`) VALUES ('ulica','miejscowosc','kod_pocztowy','kraj');</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Klasa 4/Zeszyt1.xlsx
+++ b/Klasa 4/Zeszyt1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\Strony Internetowe\lokalne-systemy-bazy-danych\Klasa 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\Programowanie\lokalne-systemy-bazy-danych\Klasa 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16894EF-6F17-4BCD-B049-DE5244A5AAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39D642E-04F5-4E93-9536-9821C728514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{73FF9202-0205-4B54-9FCF-56B13495C427}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73FF9202-0205-4B54-9FCF-56B13495C427}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>);</t>
   </si>
   <si>
-    <t>Białystok</t>
-  </si>
-  <si>
-    <t>Toruń</t>
-  </si>
-  <si>
-    <t>Rzeszów</t>
-  </si>
-  <si>
     <t>Imię</t>
   </si>
   <si>
@@ -75,13 +66,133 @@
   </si>
   <si>
     <t>wynagrodzenie</t>
+  </si>
+  <si>
+    <t>ul. Hetmańska 45/10 35-003 Rzeszów</t>
+  </si>
+  <si>
+    <t>ul. Kopernika 12/8 87-100 Toruń</t>
+  </si>
+  <si>
+    <t>ul. Piłsudskiego 15/3 15-444 Białystok</t>
+  </si>
+  <si>
+    <t>ul. Pieniężnego 7/2 10-900 Olsztyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ul. Świętojańska 32/5 81-393 Gdynia </t>
+  </si>
+  <si>
+    <t>ul. Bohaterów Westerplatte 23/6 65-001 Zielona Góra</t>
+  </si>
+  <si>
+    <t>ul. Krakowska 52/1 45-018 Opole</t>
+  </si>
+  <si>
+    <t>ul. Zwycięstwa 20/9 75-037 Koszalin</t>
+  </si>
+  <si>
+    <t>ul. Żeromskiego 101/4 26-600 Radom</t>
+  </si>
+  <si>
+    <t>Aleja NMP 43/7 42-200 Częstochowa</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Aleksandra</t>
+  </si>
+  <si>
+    <t>Michał</t>
+  </si>
+  <si>
+    <t>Zofia</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Kowalska</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Kamińska</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Lewandowska</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>mateusz.nowak@example.com</t>
+  </si>
+  <si>
+    <t>aleksandra.kowalska@example.com</t>
+  </si>
+  <si>
+    <t>michal.wisniewski@example.com</t>
+  </si>
+  <si>
+    <t>zofia.kaminska@example.com</t>
+  </si>
+  <si>
+    <t>kacper.zielinski@example.com</t>
+  </si>
+  <si>
+    <t>emilia.wojcik@example.com</t>
+  </si>
+  <si>
+    <t>piotr.szymanski@example.com</t>
+  </si>
+  <si>
+    <t>natalia.lewandowska@example.com</t>
+  </si>
+  <si>
+    <t>jakub.dabrowski@example.com</t>
+  </si>
+  <si>
+    <t>anna.kaczmarek@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +203,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -138,14 +256,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,17 +613,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394932F4-44BC-4355-8BFC-AE6CD8593D45}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.21875" style="1" bestFit="1" customWidth="1"/>
@@ -504,128 +634,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="str">
+        <f>_xlfn.CONCAT(L1,"'",A1,"','",B1,"','",C1,"','",D1,"','",E1,"','",F1,"','",G1,"','",H1,"'",M1)</f>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Imię','Nazwisko','Adres Zamieszkania','Numer Telefonu','Adres e-mail','id_stanowisko','id_lokalizacja','wynagrodzenie');</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <f>_xlfn.CONCAT(L1,"'",C1,"'",M1)</f>
-        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Adres Zamieszkania');</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6">
+        <v>48512345678</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="3">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f t="shared" ref="I2:I11" si="0">_xlfn.CONCAT(L2,"'",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"'",M2)</f>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Mateusz','Nowak','ul. Piłsudskiego 15/3 15-444 Białystok','48512345678','mateusz.nowak@example.com','1','11','5500');</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>48698234567</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>12</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Aleksandra','Kowalska','ul. Kopernika 12/8 87-100 Toruń','48698234567','aleksandra.kowalska@example.com','1','12','5500');</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
+        <v>48723987654</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>13</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Michał','Wiśniewski','ul. Hetmańska 45/10 35-003 Rzeszów','48723987654','michal.wisniewski@example.com','1','13','5500');</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F5" s="1">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6">
+        <v>48604876543</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>14</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Zofia','Kamińska','ul. Pieniężnego 7/2 10-900 Olsztyn','48604876543','zofia.kaminska@example.com','1','14','5500');</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F6" s="1">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>48785432109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>15</v>
       </c>
+      <c r="H6" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Kacper','Zieliński','ul. Świętojańska 32/5 81-393 Gdynia ','48785432109','kacper.zielinski@example.com','1','15','5500');</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F7" s="1">
+    <row r="7" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>48661543210</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>16</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Emilia','Wójcik','ul. Bohaterów Westerplatte 23/6 65-001 Zielona Góra','48661543210','emilia.wojcik@example.com','1','16','5500');</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F8" s="1">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>48792876432</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>17</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Piotr','Szymański','ul. Krakowska 52/1 45-018 Opole','48792876432','piotr.szymanski@example.com','1','17','5500');</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F9" s="1">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6">
+        <v>48536789321</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>18</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Natalia','Lewandowska','ul. Zwycięstwa 20/9 75-037 Koszalin','48536789321','natalia.lewandowska@example.com','1','18','5500');</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F10" s="1">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>48606123456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>19</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Jakub','Dąbrowski','ul. Żeromskiego 101/4 26-600 Radom','48606123456','jakub.dabrowski@example.com','1','19','5500');</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="1">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6">
+        <v>48724654321</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>20</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pracownicy`( `Imie`, `Nazwisko`, `Adres_zamieszkania`, `Numer_telefonu`, `Adres_email`, `id_stanowisko`, `id_lokalizacja`, `Wynagrodzenie`) VALUES ('Anna','Kaczmarek','Aleja NMP 43/7 42-200 Częstochowa','48724654321','anna.kaczmarek@example.com','1','20','5500');</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Klasa 4/Zeszyt1.xlsx
+++ b/Klasa 4/Zeszyt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\Programowanie\lokalne-systemy-bazy-danych\Klasa 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA310AC-5333-4825-9FDE-E5CB478DBE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9A7AD-1089-4374-B1B1-F4F484394A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73FF9202-0205-4B54-9FCF-56B13495C427}"/>
   </bookViews>
@@ -36,35 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>);</t>
   </si>
   <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
     <t>id_lokalizacja</t>
   </si>
   <si>
-    <t>Adres Zamieszkania</t>
-  </si>
-  <si>
-    <t>Numer Telefonu</t>
-  </si>
-  <si>
-    <t>Adres e-mail</t>
-  </si>
-  <si>
-    <t>id_stanowisko</t>
-  </si>
-  <si>
-    <t>INSERT INTO `typy_produktu`(`Nazwa`) VALUES (</t>
-  </si>
-  <si>
     <t>Nazwa</t>
   </si>
   <si>
@@ -132,13 +111,122 @@
   </si>
   <si>
     <t>Słuchawki</t>
+  </si>
+  <si>
+    <t>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES (</t>
+  </si>
+  <si>
+    <t>id_typ_produktu</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Ilosc</t>
+  </si>
+  <si>
+    <t>Kolor</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix SCAR 18</t>
+  </si>
+  <si>
+    <t>Czarny</t>
+  </si>
+  <si>
+    <t>Procesor
+Intel® Core™ i9-14900HX (24 rdzenie, 32 wątki, 2.20-5.80 GHz, 36 MB cache)
+Chipset
+Intel HM770
+Pamięć RAM
+64 GB (DDR5, 5600 MHz)
+Maksymalna obsługiwana ilość pamięci RAM
+64 GB
+Liczba gniazd pamięci (ogółem / wolne)
+2/0
+Dysk SSD M.2 PCIe
+2000 GB (2 x 1000 GB)
+Dotykowy ekran
+Nie
+Typ ekranu
+Matowy, LED, IPS
+Przekątna ekranu
+18"
+Rozdzielczość ekranu
+2560 x 1600 (WQXGA)
+Częstotliwość odświeżania ekranu
+240 Hz
+Jasność matrycy
+500 cd/m²
+Karta graficzna
+NVIDIA GeForce RTX 4090
+Maks. moc karty graficznej (TGP)
+175 W
+Pamięć karty graficznej
+16 GB GDDR6
+Dźwięk
+Wbudowane cztery głośniki
+Wbudowany mikrofon
+Kamera internetowa
+HD
+Łączność
+LAN 2.5 Gb/s
+Wi-Fi 6E
+Moduł Bluetooth 5.3
+Złącza
+USB 3.2 Gen. 2 - 2 szt.
+USB Typu-C (z DisplayPort i Power Delivery) - 1 szt.
+HDMI 2.1 - 1 szt.
+Thunderbolt™ 4 - 1 szt.
+RJ-45 (LAN) - 1 szt.
+Wyjście słuchawkowe/głośnikowe - 1 szt.
+DC-in (wejście zasilania) - 1 szt.
+Typ baterii
+Litowo-jonowa
+Kolor dominujący
+Czarny
+Czytnik linii papilarnych
+Nie
+Podświetlana klawiatura
+Tak
+Kolor podświetlenia klawiatury
+Wielokolorowy
+Zabezpieczenia
+Szyfrowanie TPM
+System operacyjny
+Microsoft Windows 11 Pro
+Dołączone oprogramowanie
+Partycja recovery (opcja przywrócenia systemu z dysku)
+Zasilacz
+20 V
+16,5 A
+330 W
+Dodatkowe informacje
+Wydzielona klawiatura numeryczna
+Wielodotykowy, intuicyjny touchpad
+NVIDIA G-Sync
+Matryca z pokryciem barw 100% DCI-P3
+Technologia DLSS 3
+Wysokość
+30,8 mm
+Szerokość
+399 mm
+Głębokość
+294 mm
+Waga
+3,10 kg
+Dołączone akcesoria
+Zasilacz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +240,12 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -195,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -203,6 +297,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,13 +640,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394932F4-44BC-4355-8BFC-AE6CD8593D45}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
@@ -554,7 +654,7 @@
     <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="143" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.88671875" style="1"/>
     <col min="12" max="12" width="66" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
@@ -562,365 +662,616 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>_xlfn.CONCAT(L1,"'",A1,"','",B1,"','",C1,"','",D1,"','",E1,"','",F1,"','",G1,"','",H1,"'",M1)</f>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Imię','Nazwisko','Adres Zamieszkania','Numer Telefonu','Adres e-mail','id_stanowisko','id_lokalizacja','Nazwa');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Nazwa','id_typ_produktu','Cena','Ilosc','Kolor','Opis','id_lokalizacja','Nazwa');</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22299</v>
+      </c>
+      <c r="D2" s="1">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f ca="1">_xlfn.CONCAT(L2,"'",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"'",M2)</f>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('ASUS ROG Strix SCAR 18','1','22299','11','Czarny','Procesor
+Intel® Core™ i9-14900HX (24 rdzenie, 32 wątki, 2.20-5.80 GHz, 36 MB cache)
+Chipset
+Intel HM770
+Pamięć RAM
+64 GB (DDR5, 5600 MHz)
+Maksymalna obsługiwana ilość pamięci RAM
+64 GB
+Liczba gniazd pamięci (ogółem / wolne)
+2/0
+Dysk SSD M.2 PCIe
+2000 GB (2 x 1000 GB)
+Dotykowy ekran
+Nie
+Typ ekranu
+Matowy, LED, IPS
+Przekątna ekranu
+18"
+Rozdzielczość ekranu
+2560 x 1600 (WQXGA)
+Częstotliwość odświeżania ekranu
+240 Hz
+Jasność matrycy
+500 cd/m²
+Karta graficzna
+NVIDIA GeForce RTX 4090
+Maks. moc karty graficznej (TGP)
+175 W
+Pamięć karty graficznej
+16 GB GDDR6
+Dźwięk
+Wbudowane cztery głośniki
+Wbudowany mikrofon
+Kamera internetowa
+HD
+Łączność
+LAN 2.5 Gb/s
+Wi-Fi 6E
+Moduł Bluetooth 5.3
+Złącza
+USB 3.2 Gen. 2 - 2 szt.
+USB Typu-C (z DisplayPort i Power Delivery) - 1 szt.
+HDMI 2.1 - 1 szt.
+Thunderbolt™ 4 - 1 szt.
+RJ-45 (LAN) - 1 szt.
+Wyjście słuchawkowe/głośnikowe - 1 szt.
+DC-in (wejście zasilania) - 1 szt.
+Typ baterii
+Litowo-jonowa
+Kolor dominujący
+Czarny
+Czytnik linii papilarnych
+Nie
+Podświetlana klawiatura
+Tak
+Kolor podświetlenia klawiatury
+Wielokolorowy
+Zabezpieczenia
+Szyfrowanie TPM
+System operacyjny
+Microsoft Windows 11 Pro
+Dołączone oprogramowanie
+Partycja recovery (opcja przywrócenia systemu z dysku)
+Zasilacz
+20 V
+16,5 A
+330 W
+Dodatkowe informacje
+Wydzielona klawiatura numeryczna
+Wielodotykowy, intuicyjny touchpad
+NVIDIA G-Sync
+Matryca z pokryciem barw 100% DCI-P3
+Technologia DLSS 3
+Wysokość
+30,8 mm
+Szerokość
+399 mm
+Głębokość
+294 mm
+Waga
+3,10 kg
+Dołączone akcesoria
+Zasilacz','21','Laptop');</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D23" ca="1" si="0">RANDBETWEEN(0,20)</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I2:I23" ca="1" si="1">_xlfn.CONCAT(L3,"'",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"'",M3)</f>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','2','','12','','','','Komputer Stacjonarny');</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','3','','9','','','','Monitor');</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','4','','20','','','','Klawiatura');</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','5','','19','','','','Myszka');</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H2" s="1" t="s">
+      <c r="I7" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','6','','13','','','','Karta Graficzna');</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','7','','9','','','','Procesor');</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="str">
-        <f>_xlfn.CONCAT(L2,"'",H2,"'",M2)</f>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Laptop');</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="I9" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','8','','17','','','','Dysk HDD');</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','9','','14','','','','Dysk SSD');</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','10','','20','','','','Płyta Główna');</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','11','','1','','','','Obudowa Komputera');</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','12','','14','','','','Pamięć RAM');</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','13','','13','','','','Zasilacz');</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','14','','15','','','','Chłodzenie Powietrzne');</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','15','','5','','','','Chłodzenie Wodne');</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','16','','9','','','','Karta Dźwiękowa');</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','17','','17','','','','Karta Sieciowa');</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','18','','6','','','','Napęd Optyczny');</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','19','','0','','','','Mikrofon');</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I23" si="0">_xlfn.CONCAT(L3,"'",H3,"'",M3)</f>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Komputer Stacjonarny');</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Monitor');</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Klawiatura');</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H6" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','20','','8','','','','Drukarka');</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Myszka');</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Karta Graficzna');</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Procesor');</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Dysk HDD');</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Dysk SSD');</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Płyta Główna');</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Obudowa Komputera');</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Pamięć RAM');</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H14" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','21','','14','','','','Głośnik');</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Zasilacz');</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Chłodzenie Powietrzne');</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Chłodzenie Wodne');</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Karta Dźwiękowa');</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H18" s="1" t="s">
+      <c r="D23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Karta Sieciowa');</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Napęd Optyczny');</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Mikrofon');</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Drukarka');</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Głośnik');</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H23" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `typy_produktu`(`Nazwa`) VALUES ('Słuchawki');</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','22','','4','','','','Słuchawki');</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>0</v>

--- a/Klasa 4/Zeszyt1.xlsx
+++ b/Klasa 4/Zeszyt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\Programowanie\lokalne-systemy-bazy-danych\Klasa 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9A7AD-1089-4374-B1B1-F4F484394A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134CF260-8E72-4705-A9D4-58912947A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73FF9202-0205-4B54-9FCF-56B13495C427}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>);</t>
   </si>
@@ -221,12 +221,1149 @@
 Dołączone akcesoria
 Zasilacz</t>
   </si>
+  <si>
+    <t>G4M3R ELITE</t>
+  </si>
+  <si>
+    <t>Procesor
+Intel Core i9-14900KF (24 rdzenie, 32 wątki, 3.20-6.00 GHz, 36 MB cache)
+Chipset
+Intel Z790
+Pamięć RAM
+96 GB (DIMM DDR5, 6000MHz)
+Architektura pamięci
+Dual-channel
+Maksymalna obsługiwana ilość pamięci RAM
+192 GB
+Liczba gniazd pamięci (ogółem / wolne)
+4/2
+Napięcie pamięci RAM
+1.35 V
+Karta graficzna
+NVIDIA GeForce RTX 4090
+Wielkość pamięci karty graficznej
+24576 MB GDDR6X (pamięć własna)
+Dysk SSD PCIe 4.0
+2000 GB
+Opcje dołożenia dysków
+Możliwość montażu pięciu dysków SATA
+Możliwość montażu dwóch dysków M.2 PCIe
+Wbudowane napędy optyczne
+Brak
+Dźwięk
+Zintegrowana karta dźwiękowa
+Łączność
+Wi-Fi 6E
+LAN 2.5 Gbps
+Bluetooth
+Złącza - panel tylny
+USB 2.0 - 4 szt.
+USB 3.2 Gen. 1 - 4 szt.
+USB 3.2 Gen. 2 - 1 szt.
+USB Type-C - 1 szt.
+Wejście/wyjścia audio - 3 szt.
+RJ-45 (LAN) - 1 szt.
+HDMI (nieaktywne) - 1 szt.
+HDMI (karta graficzna) - 1 szt.
+Display Port (nieaktywne) - 1 szt.
+Display Port (karta graficzna) - 3 szt.
+PS/2 - 1 szt.
+AC-in (wejście zasilania) - 1 szt.
+Złącze antenowe - 2 szt.
+Złącza - panel górny
+USB 3.2 Gen. 1 - 2 szt.
+USB Type-C - 1 szt.
+Wejście mikrofonowe - 1 szt.
+Wyjście słuchawkowe/głośnikowe - 1 szt.
+Porty wewnętrzne (wolne)
+PCI-e x16 - 2 szt.
+PCI-e x1 - 2 szt.
+SATA III - 6 szt.
+M.2 PCIe - 2 szt.
+Kieszeń wewnętrzna 5,25" - 2 szt.
+Kieszeń wewnętrzna 3,5"/2,5" - 3 szt.
+Kieszeń wewnętrzna 2,5" - 2 szt.
+Zasilacz
+1000 W
+Sprawność zasilacza
+80 Plus Gold
+Podświetlenie obudowy
+Wielokolorowe (ARGB)
+Tryby podświetlenia
+14 trybów
+Dodatkowe informacje
+Chłodzenie wodne AIO 280 mm
+Obsługa DLSS 3
+Dołączone akcesoria
+Kabel zasilający
+Antena WiFi
+System operacyjny
+Microsoft Windows 11 Pro
+Wysokość
+520 mm
+Szerokość
+230 mm
+Głębokość
+522 mm</t>
+  </si>
+  <si>
+    <t>Samsung LS49AG950NPXEN</t>
+  </si>
+  <si>
+    <t>Biały</t>
+  </si>
+  <si>
+    <t>Przeznaczenie produktu
+Dla graczy
+Przekątna ekranu
+49"
+Powłoka matrycy
+Matowa
+Rodzaj matrycy
+LED, VA
+Typ ekranu
+Zakrzywiony
+Monitor bezramkowy
+Nie
+Rozdzielczość ekranu
+5120 x 1440 (lDUAL-QHD)
+Format obrazu
+32:9
+Częstotliwość odświeżania ekranu
+240 Hz
+Odwzorowanie przestrzeni barw
+Adobe RGB: 95%
+DCI-P3: 95%
+sRGB: 125%
+Liczba wyświetlanych kolorów
+1,07 mld
+HDR
+HDR 10+
+Czas reakcji
+1 ms (GTG)
+Wbudowany kalibrator
+Nie
+Technologia synchronizacji
+FreeSync™ Premium
+NVIDIA® G-SYNC®
+Technologia ochrony oczu
+Redukcja migotania (Flicker free)
+Filtr światła niebieskiego
+Jasność
+2000 cd/m²
+Kontrast statyczny
+1 000 000:1
+Kontrast dynamiczny
+Mega ∞
+Kąt widzenia w poziomie
+178 stopni
+Kąt widzenia w pionie
+178 stopni
+Złącza
+HDMI 2.1 - 2 szt.
+DisplayPort - 1 szt.
+Wyjście słuchawkowe - 1 szt.
+USB 3.2 Gen. 1 - 2 szt.
+Tuner TV
+Nie
+Głośniki
+Nie
+Moc głośników
+Nie dotyczy
+Regulacja wysokości (Height)
+Tak
+Regulacja kąta pochylenia (Tilt)
+Tak
+Regulacja kąta obrotu (Swivel)
+Tak
+Możliwość montażu na ścianie - VESA
+VESA 100 x 100 mm
+Pobór mocy podczas spoczynku
+0,5 W
+Kolor
+Biały
+Dodatkowe informacje
+Zakrzywienia ekranu - 1000R
+Podświetlenie LED
+Dołączone akcesoria
+Skrócona instrukcja obsługi
+Instrukcja bezpieczeństwa
+Kabel zasilający
+Szerokość
+1149 mm
+Wysokość (z podstawą)
+537 mm
+Głębokość (z podstawą)
+418 mm
+Waga
+14,5 kg</t>
+  </si>
+  <si>
+    <t>Razer DeathStalker V2 Pro Clicky</t>
+  </si>
+  <si>
+    <t>Rodzaj przełączników
+Razer™ Clicky Optical Switch
+Typ
+Dla graczy
+Klasyczna
+Łączność
+Przewodowa
+Bezprzewodowa
+Interfejs
+2,4 GHz
+Bluetooth
+Klawisze numeryczne
+Tak
+Klawisze multimedialne / funkcyjne
+Tak
+Obsługa makr
+Tak
+Podświetlenie klawiszy
+Tak
+Kolor podświetlenia klawiszy
+Wielokolorowe - RGB
+Rodzaj podświetlenia
+Punktowe - każdy klawisz w innym kolorze
+Strefowe - każda strefa w innym kolorze
+Jednostrefowe - wszystkie klawisze w tym samym kolorze
+Złącza
+USB-C - 1 szt.
+Podpórka pod nadgarstki
+Nie
+Kolor
+Czarny
+Zasilanie
+Akumulator
+Obudowa
+Aluminiowa
+Dodatkowe informacje
+Anti-Ghosting z pełnym N-Key Rollover</t>
+  </si>
+  <si>
+    <t>Swiftpoint Z2</t>
+  </si>
+  <si>
+    <t>Typ myszy
+Dla graczy
+Łączność
+Przewodowa
+Sensor
+Optyczny
+Model sensora
+PixArt PAW 3395
+Rozdzielczość
+26000 dpi
+Liczba przycisków
+13
+Rolka przewijania
+1
+Długość przewodu
+2,1 m
+Profil
+Praworęczny
+Dodatkowe informacje
+Programowalne przyciski
+Profile ustawień
+Wbudowana pamięć
+Wbudowany wyświetlacz
+Kolor
+Czarny
+Długość
+130 mm
+Szerokość
+90 mm
+Wysokość
+40 mm
+Waga
+117 g</t>
+  </si>
+  <si>
+    <t>ASUS GeForce RTX 4070 Ti SUPER ROG STRIX GAMING</t>
+  </si>
+  <si>
+    <t>Seria karty graficznej
+GeForce RTX z serii 40
+Obsługa Ray tracingu
+Tak
+Technika upscalingu
+Nvidia DLSS 3.5
+Układ graficzny
+GeForce RTX 4070 Ti Super
+Rodzaj złącza
+PCIe 4.0 x16
+Pamięć
+16 GB
+Rodzaj pamięci
+GDDR6X
+Szyna pamięci
+256 bit
+Efektywne taktowanie pamięci
+21000 MHz
+Taktowanie rdzenia w trybie boost
+2670 MHz
+2700 MHz OC Mode
+Rdzenie CUDA
+8448
+Typ chłodzenia
+Aktywne
+Liczba wentylatorów
+3
+Podświetlenie
+Tak
+Rodzaje wyjść
+HDMI 2.1a - 2 szt.
+DisplayPort 1.4a - 3 szt.
+Liczba obsługiwanych monitorów
+4
+Obsługiwane biblioteki
+DirectX 12 Ultimate
+OpenGL 4.6
+Złącze zasilania
+16 pin - 1 szt.
+Rekomendowana moc zasilacza
+750 W
+Długość
+336 mm
+Szerokość
+150 mm
+Wysokość
+63 mm
+Format PCB
+ATX
+Liczba zajmowanych slotów
+3.15 slot
+Dołączone akcesoria
+Wspornik
+Adapter PCIe 16pin do 3x 8pin</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 9950X</t>
+  </si>
+  <si>
+    <t>Rodzina procesorów
+AMD Ryzen™
+Seria procesora
+Ryzen™ 9 9950X
+Gniazdo procesora (socket)
+Socket AM5
+Obsługiwany chipset
+X670
+X670E
+B650E
+B650
+A620
+X870
+X870E
+Architektura
+Zen 5
+Taktowanie rdzenia
+4.3 GHz (5.7 GHz w trybie turbo)
+Liczba rdzeni fizycznych
+16 rdzeni
+Liczba wątków
+32 wątki
+Odblokowany mnożnik
+Tak
+Pamięć podręczna
+80 MB
+Zintegrowany układ graficzny
+Tak
+Model układu graficznego
+Radeon™ Graphics
+Rodzaj obsługiwanej pamięci
+DDR5-5600
+DDR5-3600
+Proces litograficzny
+4 nm
+Pobór mocy (TDP)
+170 W
+Zastosowane technologie
+AMD EXPO™
+AMD Precision Boost 2
+Dodatkowe informacje
+Obsługa pamięci ECC
+Wersja BOX
+Chłodzenie w zestawie
+Nie</t>
+  </si>
+  <si>
+    <t>Seagate IRONWOLF PRO</t>
+  </si>
+  <si>
+    <t>Pojemność
+22000 GB
+Format
+3.5"
+Interfejs
+SATA III (6.0 Gb/s) - 1 szt.
+Pamięć podręczna cache
+512 MB
+Prędkość obrotowa
+7200 obr./min
+Prędkość odczytu (maksymalna)
+285 MB/s
+Niezawodność MTBF
+2 500 000 godz
+Dodatkowe informacje
+Technologia zapisu CMR
+Zgodność z systemami NAS
+Seagate Rescue Services (usługi odzyskiwania danych)
+Wysokość
+26,1 mm
+Szerokość
+101,85 mm
+Głębokość
+147 mm
+Waga
+690 g</t>
+  </si>
+  <si>
+    <t>Samsung 4TB M.2 PCIe Gen4 NVMe 990 Pro Heatsink</t>
+  </si>
+  <si>
+    <t>Przeznaczenie produktu
+PC
+Gaming
+PlayStation 5
+Pojemność
+4000 GB
+Format
+M.2
+Interfejs
+PCIe NVMe 4.0 x4
+Prędkość odczytu (maksymalna)
+7450 MB/s
+Prędkość zapisu (maksymalna)
+6900 MB/s
+Odczyt losowy
+1,200,000 IOPS
+Zapis losowy
+1,550,000 IOPS
+Rodzaj kości pamięci
+TLC
+Niezawodność MTBF
+1 500 000 godz
+Radiator
+Tak
+Dodatkowe informacje
+Technologia TRIM
+Technologia S.M.A.R.T
+256-bitowe szyfrowanie danych AES
+Dołączone akcesoria
+Instrukcja obsługi
+Kolor
+Czarny
+Wysokość
+8,2 mm
+Szerokość
+24 mm
+Głębokość
+80 mm
+Waga
+28 g</t>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX Z790-E GAMING WIFI II</t>
+  </si>
+  <si>
+    <t>Budowa sekcji zasilania
+18+1+2
+Rodzaj chłodzenia chipsetu płyty głównej
+Pasywny
+Obsługiwane rodziny procesorów
+Intel Core i9
+Intel Core i7
+Intel Core i5
+Intel Core i3
+Intel Celeron
+Intel Pentium
+Gniazdo procesora
+Socket 1700
+Chipset
+Intel Z790
+Architektura procesora
+Raptor Lake Refresh (14 generacja)
+Raptor Lake (13 generacja)
+Alder Lake-S (12 generacja)
+Typ obsługiwanej pamięci
+DDR5-5600 MHz
+DDR5-5400 MHz
+DDR5-5200 MHz
+DDR5-5000 MHz
+DDR5-4800 MHz
+Typ obsługiwanej pamięci OC
+DDR5-8000 MHz
+DDR5-7800 MHz
+DDR5-7600 MHz
+DDR5-7400 MHz
+DDR5-7200 MHz
+DDR5-7000 MHz
+DDR5-6800 MHz
+DDR5-6600 MHz
+DDR5-6400 MHz
+DDR5-6200 MHz
+DDR5-6000 MHz
+DDR5-5800 MHz
+Liczba banków pamięci
+4 x DIMM
+Maksymalna wielkość pamięci RAM
+192 GB
+Architektura pamięci
+Dual-channel
+Wewnętrzne złącza
+SATA III (6 Gb/s) - 4 szt.
+M.2 PCIe NVMe 4.0 x4 / SATA - 1 szt.
+M.2 PCIe NVMe 4.0 x4 - 3 szt.
+M.2 PCIe NVMe 5.0 x4 - 1 szt.
+PCIe 5.0 x16 - 1 szt.
+PCIe 4.0 x16 (tryb x4) - 2 szt.
+USB 3.2 Gen. 2x2 Typu-C - 1 szt.
+USB 3.2 Gen. 1 - 2 szt.
+USB 2.0 - 3 szt.
+Złącze wentylatora CPU 4 pin - 2 szt.
+Złącze wentylatora SYS/CHA - 5 szt.
+Złącze pompy AIO - 1 szt.
+Złącze zasilania 8 pin - 2 szt.
+Złącze zasilania 24 pin - 1 szt.
+Thunderbolt 4 - 1 szt.
+Zewnętrzne złącza
+HDMI - 1 szt.
+DisplayPort - 1 szt.
+RJ45 (LAN) 2.5 Gbps - 1 szt.
+USB Type-C - 2 szt.
+USB 3.2 Gen. 2 - 10 szt.
+Audio jack - 5 szt.
+S/PDIF - 1 szt.
+Złącze anteny Wi-Fi - 2 szt.
+Przycisk Clear CMOS - 1 szt.
+Przycisk USB BIOS Flashback - 1 szt.
+Obsługa RAID
+RAID 0
+RAID 1
+RAID 5
+RAID 10
+Obsługa układów graficznych w procesorach
+Tak
+Układ audio
+Realtek ALC4080
+Łączność bezprzewodowa
+Bluetooth
+Wi-Fi 7 (802.11 be)
+Dodatkowe informacje
+Podświetlenie LED
+Format
+ATX
+Szerokość
+244 mm
+Wysokość
+305 mm
+Dołączone akcesoria
+Instrukcja obsługi
+Kabel SATA - 2 szt.
+Elementy montażowe
+Antena Wi-Fi 2.4/5/6 GHz - 1 szt.
+Kolor
+Czarny</t>
+  </si>
+  <si>
+    <t>ASUS ROG HYPERION GR701</t>
+  </si>
+  <si>
+    <t>Typ obudowy
+Big Tower
+Panel boczny
+Szkło hartowane
+Podświetlenie
+ARGB
+Standard płyty głównej
+ATX
+microATX
+Mini-ITX
+EATX
+Miejsca na wewnętrzne dyski/napędy
+2 x 3,5"/2,5"
+2 x 5,25"
+Miejsca na karty rozszerzeń
+9
+Maksymalna długość karty graficznej
+460 mm
+Maksymalna wysokość chłodzenia CPU
+190 mm
+Maksymalna liczba wentylatorów
+7
+Opcje montażu wentylatorów
+3x 120/140 mm (przód)
+1x 120/140 mm (tył)
+3x 120/140 mm (góra)
+Opcje montażu chłodzenia wodnego
+1 x 120 mm (przód) - chłodnica
+1 x 140 mm (przód) - chłodnica
+1 x 240 mm (przód) - chłodnica
+1 x 280 mm (przód) - chłodnica
+1 x 360 mm (przód) - chłodnica
+1 x 420 mm (przód) - chłodnica
+1 x 120 mm (tył) - chłodnica
+1 x 140 mm (tył) - chłodnica
+1 x 120 mm (góra) - chłodnica
+1 x 140 mm (góra) - chłodnica
+1 x 240 mm (góra) - chłodnica
+1 x 280 mm (góra) - chłodnica
+1 x 360 mm (góra) - chłodnica
+1 x 420 mm (góra) - chłodnica
+Liczba zainstalowanych wentylatorów
+4
+Zainstalowane wentylatory
+3x 140 mm (przód)
+1x 140 mm (tył)
+Przyciski i regulatory
+Kontroler LED
+Power
+Reset
+Wyprowadzone złącza
+USB 3.2 Gen. 1 - 4 szt.
+USB 3.2 Gen. 2 Typu-C - 1 szt.
+USB 3.2 Gen. 2x2 Typu-C - 1 szt.
+Wyjście słuchawkowe/wejście mikrofonowe - 1 szt
+Materiał
+Aluminium
+Stal
+Szkło hartowane
+Kolor
+Czarny
+Dodatkowe informacje
+System aranżowania kabli
+Otwór wspomagający montaż chłodzenia na procesor
+Montaż zasilacza na dole obudowy
+Filtry antykurzowe
+Panele boczne w formie drzwi
+Kontroler / hub wentylatorów
+Dołączone akcesoria
+Instrukcja montażu
+Komplet śrubek i elementów montażowych
+Wysokość
+639 mm
+Szerokość
+268 mm
+Głębokość
+659 mm
+Waga
+21 kg</t>
+  </si>
+  <si>
+    <t>Kingston FURY 128GB</t>
+  </si>
+  <si>
+    <t>Seria
+Beast
+Rodzaj pamięci
+DDR5
+Pojemność całkowita
+128 GB (4x32 GB)
+Pojemność kości
+32 GB
+Liczba modułów
+4
+Taktowanie
+5600 MHz
+Opóźnienia (cycle latency)
+CL 40
+Timingi
+CL40-40-40
+Napięcie
+1,1 V
+Obsługiwane profile OC
+Intel XMP
+Chłodzenie
+Radiator
+Wysokość z chłodzeniem
+34,9 mm
+Pamięć ECC
+Tak
+Podświetlenie pamięci
+Nie
+Kolor
+Czarny</t>
+  </si>
+  <si>
+    <t>be quiet! DARK POWER PRO 13</t>
+  </si>
+  <si>
+    <t>Moc maksymalna
+1600 W
+Standard
+ATX 3.0
+Wyprowadzone złącza
+CPU 4+4 (8) pin - 1 szt.
+CPU 8-pin - 1 szt.
+EPS12V 20+4 (24) pin - 1 szt.
+PCI-E 5.0 12+4 (16) pin - 2 szt
+PCI-E 2.0 6+2 (8) pin - 6 szt.
+MOLEX 4-pin - 5 szt.
+SATA - 16 szt.
+Sprawność
+92-94% przy 230V oraz 20-100% obciążeniu.
+Certyfikat
+80 PLUS Titanium
+Zabezpieczenia
+Przed zbyt wysokim prądem (OCP)
+Przeciwprzeciążeniowe (OPP)
+Termiczne (OTP)
+Przeciwprzepięciowe (OVP)
+Przeciwzwarciowe (SCP)
+Przed prądami udarowymi (SIP)
+Przed zbyt niskim napięciem (UVP)
+Typ okablowania
+Modularny
+Średnica wentylatora
+135 mm
+Kolor
+Czarny
+Dodatkowe informacje
+Zgodny z normami CB, CE
+Dołączone akcesoria
+Elementy montażowe
+Wysokość
+86 mm
+Szerokość
+150 mm
+Głębokość
+200 mm</t>
+  </si>
+  <si>
+    <t>Rodzaj chłodzenia
+Aktywne
+Kompatybilność
+2066
+2011-3
+2011
+1700
+1200
+1155
+1151
+1150
+AM5
+AM4
+Rozmiar radiatora
+127 x 110 x 157 mm
+Materiał radiatora
+Miedź
+Ciepłowody
+6 x 6 mm
+Liczba wentylatorów
+2x 120 mm
+Kontrola obrotów
+PWM
+Prędkość obrotowa
+500 - 1850 obr./min
+Rodzaj łożyska
+Fluid Dynamic Bearing
+Maksymalny poziom hałasu
+28 dB
+Maksymalny przepływ powietrza
+68,9 CFM
+Rozmiar wentylatora
+120 x 120 x 25 mm
+Prąd zasilający
+0,12 A
+Podświetlenie
+RGB
+Dodatkowe informacje
+Kolorowy ekran LCD
+Wysokość
+162 mm
+Szerokość
+129 mm
+Głębokość
+138 mm
+Dołączone akcesoria
+Pasta termoprzewodząca
+Zestaw montażowy backplate Intel &amp; AMD
+Zestaw montażowy</t>
+  </si>
+  <si>
+    <t>Deepcool AK620 Digital ARGB</t>
+  </si>
+  <si>
+    <t>Corsair iCUE H150i ELITE LCD XT Black</t>
+  </si>
+  <si>
+    <t>Rodzaj chłodzenia
+Wodne
+Kompatybilność
+2066
+2011
+1700
+1200
+1156
+1151
+1150
+sTR4
+AM5
+AM4
+Materiał radiatora
+Aluminium
+Liczba wentylatorów
+3x 120 mm
+Kontrola obrotów
+PWM
+Prędkość obrotowa
+550 - 2100 obr./min
+Maksymalny poziom hałasu
+34,1 dB
+Maksymalny przepływ powietrza
+65,6 CFM
+Rozmiar wentylatora
+120 x 120 x 25 mm
+Podświetlenie
+RGB
+Dodatkowe informacje
+Kolorowy ekran LCD
+Waga
+1100 g
+Dołączone akcesoria
+Zestaw montażowy backplate Intel &amp; AMD
+Instrukcja instalacji
+Śrubki montażowe
+Kontroler RGB</t>
+  </si>
+  <si>
+    <t>Creative Sound Blaster X AE-5 Plus</t>
+  </si>
+  <si>
+    <t>Typ karty dźwiękowej
+Wewnętrzna
+System dźwięku
+5.1
+Interfejs
+PCI-E
+Procesor dźwięku
+Sound Core3D
+Próbkowanie
+32 bit
+Częstοtliwość próbkowania
+384 kHz
+Stosunek sygnału do szumu (SNR)
+122 dB
+Obsługiwane standardy dźwięku
+Dolby Surround
+DTS Connect
+Rodzaje wejść / wyjść
+Wyjście słuchawkowe/głośnikowe (jack 3,5 mm) - 4 szt.
+Wejście mikrofonowe - 1 szt.
+Wyjście optyczne S/PDIF Toslink - 1 szt.
+Dodatkowe informacje
+Kontroler audio DAC klasy premium
+Dołączone akcesoria
+Skrócona instrukcja obsługi</t>
+  </si>
+  <si>
+    <t>ASUS XG-C100F</t>
+  </si>
+  <si>
+    <t>Czerwony</t>
+  </si>
+  <si>
+    <t>Rodzaj
+Przewodowa
+Interfejs
+PCI-E
+Rodzaje wejść / wyjść
+SFP+ - 1 szt.
+Maksymalna prędkość transmisji bezprzewodowej
+do 10000 Mb/s
+Dodatkowe informacje
+Aluminiowy radiator
+QoS</t>
+  </si>
+  <si>
+    <t>ASUS SDRW-08U5S Slim</t>
+  </si>
+  <si>
+    <t>Srebrny</t>
+  </si>
+  <si>
+    <t>Rodzaj napędu
+Zewnętrzny
+Funkcje napędu
+Nagrywanie płyt DVD
+Nagrywanie płyt CD
+Odtwarzanie płyt DVD
+Odtwarzanie płyt CD
+Interfejs
+USB 2.0
+Prędkość zapisu
+DVD±R - 8x
+DVD±R DL - 6x
+DVD-RAM - 5x
+DVD+RW - 8x
+DVD-RW - 6x
+CD-R - 24x
+CD-RW - 24x
+Prędkość odczytu
+DVD-ROM - 8x
+CD-ROM - 24x
+DVD±R - 8x
+DVD±R DL - 8x
+DVD-RAM - 5x
+DVD+RW - 8x
+DVD-RW - 8x
+CD-R - 24x
+CD-RW - 24x
+Czas dostępu
+DVD - 160 ms
+CD - 160 ms
+Wysokość
+12,9 mm
+Szerokość
+135,5 mm
+Głebokość
+140 mm
+Waga
+255 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperX ProCast </t>
+  </si>
+  <si>
+    <t>Przeznaczenie
+Komputerowe
+System mocowania
+Statyw biurkowy
+Rodzaj łączności
+Przewodowa
+Charakterystyka kierunkowości
+Kardioidalna
+Złącze
+XLR - 1 szt.
+Czułość
+-38 dB
+Zasilanie
+Phantom 48V
+Dodatkowe informacje
+Gwint 3/8"
+Gwint 5/8"
+Uchwyt antywstrząsowy
+Filtr górnoprzepustowy - 80 Hz
+Stosunek sygnału do szumu: 75 dB
+Kolor
+Czarny
+Dołączone akcesoria
+Filtr pop
+Instrukcja obsługi
+Adapter do statywu
+Waga
+372 g</t>
+  </si>
+  <si>
+    <t>HP DesignJet T230</t>
+  </si>
+  <si>
+    <t>Przeznaczenie produktu
+Do biura i korporacji
+Zastosowanie
+Rysunki liniowe
+Prezentacje
+Renderingi
+Technologia druku
+Atramentowa, kolorowa
+Obsługiwany typ nośnika
+Papier zwykły
+Obsługiwane formaty nośników
+A4
+A3
+A2
+A1
+24"
+System stałego zasilania atramentem (CISS)
+Nie
+Rozmiar zwoju
+Od 279 do 610 mm
+Rodzaje podajników papieru
+Rolka
+Szybkość druku w kolorze
+do 1,1 str./min
+Maksymalna rozdzielczość druku
+2400 x 1200 dpi
+Maksymalna gramatura papieru
+280 g/m²
+Druk dwustronny (dupleks)
+Brak
+Wersja z WiFi
+Tak
+Interfejsy
+USB
+Wi-Fi
+LAN (Ethernet)
+AirPrint
+Wyświetlacz
+Wbudowany
+Liczba wkładów drukujących
+4
+Dodatkowe informacje
+Drukowanie bezpośrednio ze smartfonów i tabletów
+Automatyczna gilotyna
+Dołączone akcesoria
+Kabel zasilający
+Tusze startowe
+Kolor
+Czarny
+Szerokość
+1013 mm
+Wysokość
+285 mm
+Głębokość
+440 mm
+Waga
+21,5 kg</t>
+  </si>
+  <si>
+    <t>Liczba kanałów
+7.0.2
+Subwoofer
+Brak
+Łączność bezprzewodowa
+Bluetooth
+Wi-Fi
+AirPlay
+Zakrzywiona konstrukcja
+Nie
+Systemy dźwięku
+Dolby Digital
+Dolby Digital Plus
+Dolby True HD
+DTS
+DTS-ES
+Dolby Dual Mono
+Dolby Atmos
+DTS: X
+IMAX Enhanced
+360 Spatial Sound Mapping
+Odtwarzane formaty plików
+AAC
+SBC
+LDAC
+Rodzaje wejść
+HDMI 1 szt.
+Rodzaje wyjść
+HDMI (eARC)
+Funkcje dodatkowe
+Tryb głosowy
+Tryb nocny
+Spotify Connect
+Informacje uzupełniające
+Technologia wirtualnego dźwięku przestrzennego
+Kolor
+Czarny
+Wysokość
+64 mm
+Szerokość
+1300 mm
+Głębokość
+113 mm
+Waga
+5,5 kg
+Dołączone akcesoria
+Kabel HDMI
+Pilot
+Kabel zasilający
+Baterie do pilota
+Uchwyty do montażu na ścianie
+Głośniki
+Podstawa stołowa</t>
+  </si>
+  <si>
+    <t>Sony BRAVIA Theatre Bar 9 + SA-RS3S</t>
+  </si>
+  <si>
+    <t>JBL QUANTUM 910 PSP</t>
+  </si>
+  <si>
+    <t>Łączność
+Bezprzewodowa i przewodowa
+Rodzaj łączności
+Bluetooth 5.2
+Budowa słuchawek
+Nauszne
+Zamknięte
+System audio
+Stereo 2.0
+Wielokanałowy 7.1 - wirtualne
+Redukcja hałasu
+Aktywna - ANC
+Średnica membrany
+50 mm
+Pasmo przenoszenia słuchawek
+20 ~ 40000 Hz
+Impedancja słuchawek
+32 Ω
+Czułość słuchawek
+111 dB
+Wbudowany mikrofon
+Posiada, przy słuchawce
+Odłączany mikrofon
+Nie
+Charakterystyka mikrofonu
+Jednokierunkowy
+Pasmo przenoszenia mikrofonu
+100 ~ 8000 Hz
+Czułość mikrofonu
+-38 dB
+Zasilanie
+Wbudowany akumulator 1300 mAh
+Czas ładowania
+ok. 3,5h
+Maksymalny czas pracy
+do 47 h (przy wyłączonym podświetleniu)
+Kompatybilność
+Android
+Windows
+Mac OS
+iOS
+Nintendo Switch
+Xbox One
+Xbox Series X
+Xbox Series S
+PlayStation 4
+PlayStation 5
+Połączenie z konsolą
+Bezprzewodowo
+Bezprzewodowo – wymagany adapter USB
+Przewodowo – jack 3,5mm
+Zastosowane technologie
+Certyfikat Hi-Res Audio
+A2DP
+HFP
+QuantumSPHERE 360™
+QuantumSURROUND
+Materiał nauszników
+Pianka
+Skóra naturalna
+Dodatkowe informacje
+Regulowany pałąk
+Podświetlane nauszniki
+Pianka memory w nausznicach
+Miękko wyściełany pałąk
+Przetwornik dynamiczny
+Możliwość wyciszania mikrofonu
+Ruchomy mikrofon
+Funkcja śledzenia ruchu głowy
+Kolor
+Biało-niebieskie
+Dołączone akcesoria
+Odbiornik
+Kabel USB
+Kabel Jack 3,5 mm
+Adapter USB-A - USB-C
+Osłona przeciwwietrzna
+Instrukcja obsługi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +1383,13 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -640,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394932F4-44BC-4355-8BFC-AE6CD8593D45}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -654,7 +1798,7 @@
     <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" style="1" customWidth="1"/>
     <col min="10" max="11" width="8.88671875" style="1"/>
     <col min="12" max="12" width="66" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
@@ -708,7 +1852,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -723,8 +1867,8 @@
         <v>3</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f ca="1">_xlfn.CONCAT(L2,"'",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"'",M2)</f>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('ASUS ROG Strix SCAR 18','1','22299','11','Czarny','Procesor
+        <f ca="1">_xlfn.CONCAT(L2,"'",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"'",M2)</f>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('ASUS ROG Strix SCAR 18','1','22299','15','Czarny','Procesor
 Intel® Core™ i9-14900HX (24 rdzenie, 32 wątki, 2.20-5.80 GHz, 36 MB cache)
 Chipset
 Intel HM770
@@ -806,7 +1950,7 @@
 Waga
 3,10 kg
 Dołączone akcesoria
-Zasilacz','21','Laptop');</v>
+Zasilacz','21');</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>25</v>
@@ -815,20 +1959,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
+      <c r="C3" s="1">
+        <v>18900</v>
+      </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D23" ca="1" si="0">RANDBETWEEN(0,20)</f>
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1">
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f t="shared" ref="I2:I23" ca="1" si="1">_xlfn.CONCAT(L3,"'",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"'",M3)</f>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','2','','12','','','','Komputer Stacjonarny');</v>
+        <f t="shared" ref="I3:I23" ca="1" si="1">_xlfn.CONCAT(L3,"'",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"'",M3)</f>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('G4M3R ELITE','2','18900','10','Czarny','Procesor
+Intel Core i9-14900KF (24 rdzenie, 32 wątki, 3.20-6.00 GHz, 36 MB cache)
+Chipset
+Intel Z790
+Pamięć RAM
+96 GB (DIMM DDR5, 6000MHz)
+Architektura pamięci
+Dual-channel
+Maksymalna obsługiwana ilość pamięci RAM
+192 GB
+Liczba gniazd pamięci (ogółem / wolne)
+4/2
+Napięcie pamięci RAM
+1.35 V
+Karta graficzna
+NVIDIA GeForce RTX 4090
+Wielkość pamięci karty graficznej
+24576 MB GDDR6X (pamięć własna)
+Dysk SSD PCIe 4.0
+2000 GB
+Opcje dołożenia dysków
+Możliwość montażu pięciu dysków SATA
+Możliwość montażu dwóch dysków M.2 PCIe
+Wbudowane napędy optyczne
+Brak
+Dźwięk
+Zintegrowana karta dźwiękowa
+Łączność
+Wi-Fi 6E
+LAN 2.5 Gbps
+Bluetooth
+Złącza - panel tylny
+USB 2.0 - 4 szt.
+USB 3.2 Gen. 1 - 4 szt.
+USB 3.2 Gen. 2 - 1 szt.
+USB Type-C - 1 szt.
+Wejście/wyjścia audio - 3 szt.
+RJ-45 (LAN) - 1 szt.
+HDMI (nieaktywne) - 1 szt.
+HDMI (karta graficzna) - 1 szt.
+Display Port (nieaktywne) - 1 szt.
+Display Port (karta graficzna) - 3 szt.
+PS/2 - 1 szt.
+AC-in (wejście zasilania) - 1 szt.
+Złącze antenowe - 2 szt.
+Złącza - panel górny
+USB 3.2 Gen. 1 - 2 szt.
+USB Type-C - 1 szt.
+Wejście mikrofonowe - 1 szt.
+Wyjście słuchawkowe/głośnikowe - 1 szt.
+Porty wewnętrzne (wolne)
+PCI-e x16 - 2 szt.
+PCI-e x1 - 2 szt.
+SATA III - 6 szt.
+M.2 PCIe - 2 szt.
+Kieszeń wewnętrzna 5,25" - 2 szt.
+Kieszeń wewnętrzna 3,5"/2,5" - 3 szt.
+Kieszeń wewnętrzna 2,5" - 2 szt.
+Zasilacz
+1000 W
+Sprawność zasilacza
+80 Plus Gold
+Podświetlenie obudowy
+Wielokolorowe (ARGB)
+Tryby podświetlenia
+14 trybów
+Dodatkowe informacje
+Chłodzenie wodne AIO 280 mm
+Obsługa DLSS 3
+Dołączone akcesoria
+Kabel zasilający
+Antena WiFi
+System operacyjny
+Microsoft Windows 11 Pro
+Wysokość
+520 mm
+Szerokość
+230 mm
+Głębokość
+522 mm','22');</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>25</v>
@@ -837,20 +2075,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
+      <c r="C4" s="1">
+        <v>7959</v>
+      </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1">
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','3','','9','','','','Monitor');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Samsung LS49AG950NPXEN','3','7959','7','Biały','Przeznaczenie produktu
+Dla graczy
+Przekątna ekranu
+49"
+Powłoka matrycy
+Matowa
+Rodzaj matrycy
+LED, VA
+Typ ekranu
+Zakrzywiony
+Monitor bezramkowy
+Nie
+Rozdzielczość ekranu
+5120 x 1440 (lDUAL-QHD)
+Format obrazu
+32:9
+Częstotliwość odświeżania ekranu
+240 Hz
+Odwzorowanie przestrzeni barw
+Adobe RGB: 95%
+DCI-P3: 95%
+sRGB: 125%
+Liczba wyświetlanych kolorów
+1,07 mld
+HDR
+HDR 10+
+Czas reakcji
+1 ms (GTG)
+Wbudowany kalibrator
+Nie
+Technologia synchronizacji
+FreeSync™ Premium
+NVIDIA® G-SYNC®
+Technologia ochrony oczu
+Redukcja migotania (Flicker free)
+Filtr światła niebieskiego
+Jasność
+2000 cd/m²
+Kontrast statyczny
+1 000 000:1
+Kontrast dynamiczny
+Mega ∞
+Kąt widzenia w poziomie
+178 stopni
+Kąt widzenia w pionie
+178 stopni
+Złącza
+HDMI 2.1 - 2 szt.
+DisplayPort - 1 szt.
+Wyjście słuchawkowe - 1 szt.
+USB 3.2 Gen. 1 - 2 szt.
+Tuner TV
+Nie
+Głośniki
+Nie
+Moc głośników
+Nie dotyczy
+Regulacja wysokości (Height)
+Tak
+Regulacja kąta pochylenia (Tilt)
+Tak
+Regulacja kąta obrotu (Swivel)
+Tak
+Możliwość montażu na ścianie - VESA
+VESA 100 x 100 mm
+Pobór mocy podczas spoczynku
+0,5 W
+Kolor
+Biały
+Dodatkowe informacje
+Zakrzywienia ekranu - 1000R
+Podświetlenie LED
+Dołączone akcesoria
+Skrócona instrukcja obsługi
+Instrukcja bezpieczeństwa
+Kabel zasilający
+Szerokość
+1149 mm
+Wysokość (z podstawą)
+537 mm
+Głębokość (z podstawą)
+418 mm
+Waga
+14,5 kg','23');</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>25</v>
@@ -859,20 +2195,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
+      <c r="C5" s="1">
+        <v>899</v>
+      </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1">
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','4','','20','','','','Klawiatura');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Razer DeathStalker V2 Pro Clicky','4','899','17','Czarny','Rodzaj przełączników
+Razer™ Clicky Optical Switch
+Typ
+Dla graczy
+Klasyczna
+Łączność
+Przewodowa
+Bezprzewodowa
+Interfejs
+2,4 GHz
+Bluetooth
+Klawisze numeryczne
+Tak
+Klawisze multimedialne / funkcyjne
+Tak
+Obsługa makr
+Tak
+Podświetlenie klawiszy
+Tak
+Kolor podświetlenia klawiszy
+Wielokolorowe - RGB
+Rodzaj podświetlenia
+Punktowe - każdy klawisz w innym kolorze
+Strefowe - każda strefa w innym kolorze
+Jednostrefowe - wszystkie klawisze w tym samym kolorze
+Złącza
+USB-C - 1 szt.
+Podpórka pod nadgarstki
+Nie
+Kolor
+Czarny
+Zasilanie
+Akumulator
+Obudowa
+Aluminiowa
+Dodatkowe informacje
+Anti-Ghosting z pełnym N-Key Rollover','22');</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>25</v>
@@ -881,20 +2268,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
+      <c r="C6" s="1">
+        <v>1099</v>
+      </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1">
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','5','','19','','','','Myszka');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Swiftpoint Z2','5','1099','2','Czarny','Typ myszy
+Dla graczy
+Łączność
+Przewodowa
+Sensor
+Optyczny
+Model sensora
+PixArt PAW 3395
+Rozdzielczość
+26000 dpi
+Liczba przycisków
+13
+Rolka przewijania
+1
+Długość przewodu
+2,1 m
+Profil
+Praworęczny
+Dodatkowe informacje
+Programowalne przyciski
+Profile ustawień
+Wbudowana pamięć
+Wbudowany wyświetlacz
+Kolor
+Czarny
+Długość
+130 mm
+Szerokość
+90 mm
+Wysokość
+40 mm
+Waga
+117 g','24');</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>25</v>
@@ -903,20 +2337,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
+      <c r="C7" s="1">
+        <v>5099</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','6','','13','','','','Karta Graficzna');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('ASUS GeForce RTX 4070 Ti SUPER ROG STRIX GAMING','6','5099','17','Czarny','Seria karty graficznej
+GeForce RTX z serii 40
+Obsługa Ray tracingu
+Tak
+Technika upscalingu
+Nvidia DLSS 3.5
+Układ graficzny
+GeForce RTX 4070 Ti Super
+Rodzaj złącza
+PCIe 4.0 x16
+Pamięć
+16 GB
+Rodzaj pamięci
+GDDR6X
+Szyna pamięci
+256 bit
+Efektywne taktowanie pamięci
+21000 MHz
+Taktowanie rdzenia w trybie boost
+2670 MHz
+2700 MHz OC Mode
+Rdzenie CUDA
+8448
+Typ chłodzenia
+Aktywne
+Liczba wentylatorów
+3
+Podświetlenie
+Tak
+Rodzaje wyjść
+HDMI 2.1a - 2 szt.
+DisplayPort 1.4a - 3 szt.
+Liczba obsługiwanych monitorów
+4
+Obsługiwane biblioteki
+DirectX 12 Ultimate
+OpenGL 4.6
+Złącze zasilania
+16 pin - 1 szt.
+Rekomendowana moc zasilacza
+750 W
+Długość
+336 mm
+Szerokość
+150 mm
+Wysokość
+63 mm
+Format PCB
+ATX
+Liczba zajmowanych slotów
+3.15 slot
+Dołączone akcesoria
+Wspornik
+Adapter PCIe 16pin do 3x 8pin','25');</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>25</v>
@@ -925,20 +2427,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
+      <c r="C8" s="1">
+        <v>2999</v>
+      </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1">
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','7','','9','','','','Procesor');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('AMD Ryzen 9 9950X','7','2999','10','','Rodzina procesorów
+AMD Ryzen™
+Seria procesora
+Ryzen™ 9 9950X
+Gniazdo procesora (socket)
+Socket AM5
+Obsługiwany chipset
+X670
+X670E
+B650E
+B650
+A620
+X870
+X870E
+Architektura
+Zen 5
+Taktowanie rdzenia
+4.3 GHz (5.7 GHz w trybie turbo)
+Liczba rdzeni fizycznych
+16 rdzeni
+Liczba wątków
+32 wątki
+Odblokowany mnożnik
+Tak
+Pamięć podręczna
+80 MB
+Zintegrowany układ graficzny
+Tak
+Model układu graficznego
+Radeon™ Graphics
+Rodzaj obsługiwanej pamięci
+DDR5-5600
+DDR5-3600
+Proces litograficzny
+4 nm
+Pobór mocy (TDP)
+170 W
+Zastosowane technologie
+AMD EXPO™
+AMD Precision Boost 2
+Dodatkowe informacje
+Obsługa pamięci ECC
+Wersja BOX
+Chłodzenie w zestawie
+Nie','24');</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>25</v>
@@ -947,20 +2505,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
+      <c r="C9" s="1">
+        <v>2469</v>
+      </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','8','','17','','','','Dysk HDD');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Seagate IRONWOLF PRO','8','2469','0','','Pojemność
+22000 GB
+Format
+3.5"
+Interfejs
+SATA III (6.0 Gb/s) - 1 szt.
+Pamięć podręczna cache
+512 MB
+Prędkość obrotowa
+7200 obr./min
+Prędkość odczytu (maksymalna)
+285 MB/s
+Niezawodność MTBF
+2 500 000 godz
+Dodatkowe informacje
+Technologia zapisu CMR
+Zgodność z systemami NAS
+Seagate Rescue Services (usługi odzyskiwania danych)
+Wysokość
+26,1 mm
+Szerokość
+101,85 mm
+Głębokość
+147 mm
+Waga
+690 g','26');</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>25</v>
@@ -969,20 +2564,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
+      <c r="C10" s="1">
+        <v>1999</v>
+      </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','9','','14','','','','Dysk SSD');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Samsung 4TB M.2 PCIe Gen4 NVMe 990 Pro Heatsink','9','1999','5','Czarny','Przeznaczenie produktu
+PC
+Gaming
+PlayStation 5
+Pojemność
+4000 GB
+Format
+M.2
+Interfejs
+PCIe NVMe 4.0 x4
+Prędkość odczytu (maksymalna)
+7450 MB/s
+Prędkość zapisu (maksymalna)
+6900 MB/s
+Odczyt losowy
+1,200,000 IOPS
+Zapis losowy
+1,550,000 IOPS
+Rodzaj kości pamięci
+TLC
+Niezawodność MTBF
+1 500 000 godz
+Radiator
+Tak
+Dodatkowe informacje
+Technologia TRIM
+Technologia S.M.A.R.T
+256-bitowe szyfrowanie danych AES
+Dołączone akcesoria
+Instrukcja obsługi
+Kolor
+Czarny
+Wysokość
+8,2 mm
+Szerokość
+24 mm
+Głębokość
+80 mm
+Waga
+28 g','26');</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>25</v>
@@ -991,20 +2640,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
+      <c r="C11" s="1">
+        <v>2509</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1">
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','10','','20','','','','Płyta Główna');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('ASUS ROG STRIX Z790-E GAMING WIFI II','10','2509','19','Czarny','Budowa sekcji zasilania
+18+1+2
+Rodzaj chłodzenia chipsetu płyty głównej
+Pasywny
+Obsługiwane rodziny procesorów
+Intel Core i9
+Intel Core i7
+Intel Core i5
+Intel Core i3
+Intel Celeron
+Intel Pentium
+Gniazdo procesora
+Socket 1700
+Chipset
+Intel Z790
+Architektura procesora
+Raptor Lake Refresh (14 generacja)
+Raptor Lake (13 generacja)
+Alder Lake-S (12 generacja)
+Typ obsługiwanej pamięci
+DDR5-5600 MHz
+DDR5-5400 MHz
+DDR5-5200 MHz
+DDR5-5000 MHz
+DDR5-4800 MHz
+Typ obsługiwanej pamięci OC
+DDR5-8000 MHz
+DDR5-7800 MHz
+DDR5-7600 MHz
+DDR5-7400 MHz
+DDR5-7200 MHz
+DDR5-7000 MHz
+DDR5-6800 MHz
+DDR5-6600 MHz
+DDR5-6400 MHz
+DDR5-6200 MHz
+DDR5-6000 MHz
+DDR5-5800 MHz
+Liczba banków pamięci
+4 x DIMM
+Maksymalna wielkość pamięci RAM
+192 GB
+Architektura pamięci
+Dual-channel
+Wewnętrzne złącza
+SATA III (6 Gb/s) - 4 szt.
+M.2 PCIe NVMe 4.0 x4 / SATA - 1 szt.
+M.2 PCIe NVMe 4.0 x4 - 3 szt.
+M.2 PCIe NVMe 5.0 x4 - 1 szt.
+PCIe 5.0 x16 - 1 szt.
+PCIe 4.0 x16 (tryb x4) - 2 szt.
+USB 3.2 Gen. 2x2 Typu-C - 1 szt.
+USB 3.2 Gen. 1 - 2 szt.
+USB 2.0 - 3 szt.
+Złącze wentylatora CPU 4 pin - 2 szt.
+Złącze wentylatora SYS/CHA - 5 szt.
+Złącze pompy AIO - 1 szt.
+Złącze zasilania 8 pin - 2 szt.
+Złącze zasilania 24 pin - 1 szt.
+Thunderbolt 4 - 1 szt.
+Zewnętrzne złącza
+HDMI - 1 szt.
+DisplayPort - 1 szt.
+RJ45 (LAN) 2.5 Gbps - 1 szt.
+USB Type-C - 2 szt.
+USB 3.2 Gen. 2 - 10 szt.
+Audio jack - 5 szt.
+S/PDIF - 1 szt.
+Złącze anteny Wi-Fi - 2 szt.
+Przycisk Clear CMOS - 1 szt.
+Przycisk USB BIOS Flashback - 1 szt.
+Obsługa RAID
+RAID 0
+RAID 1
+RAID 5
+RAID 10
+Obsługa układów graficznych w procesorach
+Tak
+Układ audio
+Realtek ALC4080
+Łączność bezprzewodowa
+Bluetooth
+Wi-Fi 7 (802.11 be)
+Dodatkowe informacje
+Podświetlenie LED
+Format
+ATX
+Szerokość
+244 mm
+Wysokość
+305 mm
+Dołączone akcesoria
+Instrukcja obsługi
+Kabel SATA - 2 szt.
+Elementy montażowe
+Antena Wi-Fi 2.4/5/6 GHz - 1 szt.
+Kolor
+Czarny','28');</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>25</v>
@@ -1013,20 +2774,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
+      <c r="C12" s="1">
+        <v>1599</v>
+      </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1">
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','11','','1','','','','Obudowa Komputera');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('ASUS ROG HYPERION GR701','11','1599','5','Czarny','Typ obudowy
+Big Tower
+Panel boczny
+Szkło hartowane
+Podświetlenie
+ARGB
+Standard płyty głównej
+ATX
+microATX
+Mini-ITX
+EATX
+Miejsca na wewnętrzne dyski/napędy
+2 x 3,5"/2,5"
+2 x 5,25"
+Miejsca na karty rozszerzeń
+9
+Maksymalna długość karty graficznej
+460 mm
+Maksymalna wysokość chłodzenia CPU
+190 mm
+Maksymalna liczba wentylatorów
+7
+Opcje montażu wentylatorów
+3x 120/140 mm (przód)
+1x 120/140 mm (tył)
+3x 120/140 mm (góra)
+Opcje montażu chłodzenia wodnego
+1 x 120 mm (przód) - chłodnica
+1 x 140 mm (przód) - chłodnica
+1 x 240 mm (przód) - chłodnica
+1 x 280 mm (przód) - chłodnica
+1 x 360 mm (przód) - chłodnica
+1 x 420 mm (przód) - chłodnica
+1 x 120 mm (tył) - chłodnica
+1 x 140 mm (tył) - chłodnica
+1 x 120 mm (góra) - chłodnica
+1 x 140 mm (góra) - chłodnica
+1 x 240 mm (góra) - chłodnica
+1 x 280 mm (góra) - chłodnica
+1 x 360 mm (góra) - chłodnica
+1 x 420 mm (góra) - chłodnica
+Liczba zainstalowanych wentylatorów
+4
+Zainstalowane wentylatory
+3x 140 mm (przód)
+1x 140 mm (tył)
+Przyciski i regulatory
+Kontroler LED
+Power
+Reset
+Wyprowadzone złącza
+USB 3.2 Gen. 1 - 4 szt.
+USB 3.2 Gen. 2 Typu-C - 1 szt.
+USB 3.2 Gen. 2x2 Typu-C - 1 szt.
+Wyjście słuchawkowe/wejście mikrofonowe - 1 szt
+Materiał
+Aluminium
+Stal
+Szkło hartowane
+Kolor
+Czarny
+Dodatkowe informacje
+System aranżowania kabli
+Otwór wspomagający montaż chłodzenia na procesor
+Montaż zasilacza na dole obudowy
+Filtry antykurzowe
+Panele boczne w formie drzwi
+Kontroler / hub wentylatorów
+Dołączone akcesoria
+Instrukcja montażu
+Komplet śrubek i elementów montażowych
+Wysokość
+639 mm
+Szerokość
+268 mm
+Głębokość
+659 mm
+Waga
+21 kg','27');</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>25</v>
@@ -1035,20 +2889,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
+      <c r="C13" s="1">
+        <v>1779</v>
+      </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1">
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','12','','14','','','','Pamięć RAM');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Kingston FURY 128GB','12','1779','2','Czarny','Seria
+Beast
+Rodzaj pamięci
+DDR5
+Pojemność całkowita
+128 GB (4x32 GB)
+Pojemność kości
+32 GB
+Liczba modułów
+4
+Taktowanie
+5600 MHz
+Opóźnienia (cycle latency)
+CL 40
+Timingi
+CL40-40-40
+Napięcie
+1,1 V
+Obsługiwane profile OC
+Intel XMP
+Chłodzenie
+Radiator
+Wysokość z chłodzeniem
+34,9 mm
+Pamięć ECC
+Tak
+Podświetlenie pamięci
+Nie
+Kolor
+Czarny','29');</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>25</v>
@@ -1057,20 +2955,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
+      <c r="C14" s="1">
+        <v>1999</v>
+      </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1">
+        <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','13','','13','','','','Zasilacz');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('be quiet! DARK POWER PRO 13','13','1999','15','Czarny','Moc maksymalna
+1600 W
+Standard
+ATX 3.0
+Wyprowadzone złącza
+CPU 4+4 (8) pin - 1 szt.
+CPU 8-pin - 1 szt.
+EPS12V 20+4 (24) pin - 1 szt.
+PCI-E 5.0 12+4 (16) pin - 2 szt
+PCI-E 2.0 6+2 (8) pin - 6 szt.
+MOLEX 4-pin - 5 szt.
+SATA - 16 szt.
+Sprawność
+92-94% przy 230V oraz 20-100% obciążeniu.
+Certyfikat
+80 PLUS Titanium
+Zabezpieczenia
+Przed zbyt wysokim prądem (OCP)
+Przeciwprzeciążeniowe (OPP)
+Termiczne (OTP)
+Przeciwprzepięciowe (OVP)
+Przeciwzwarciowe (SCP)
+Przed prądami udarowymi (SIP)
+Przed zbyt niskim napięciem (UVP)
+Typ okablowania
+Modularny
+Średnica wentylatora
+135 mm
+Kolor
+Czarny
+Dodatkowe informacje
+Zgodny z normami CB, CE
+Dołączone akcesoria
+Elementy montażowe
+Wysokość
+86 mm
+Szerokość
+150 mm
+Głębokość
+200 mm','30');</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>25</v>
@@ -1079,20 +3031,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
+      <c r="C15" s="1">
+        <v>309</v>
+      </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="1">
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','14','','15','','','','Chłodzenie Powietrzne');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Deepcool AK620 Digital ARGB','14','309','1','Czarny','Rodzaj chłodzenia
+Aktywne
+Kompatybilność
+2066
+2011-3
+2011
+1700
+1200
+1155
+1151
+1150
+AM5
+AM4
+Rozmiar radiatora
+127 x 110 x 157 mm
+Materiał radiatora
+Miedź
+Ciepłowody
+6 x 6 mm
+Liczba wentylatorów
+2x 120 mm
+Kontrola obrotów
+PWM
+Prędkość obrotowa
+500 - 1850 obr./min
+Rodzaj łożyska
+Fluid Dynamic Bearing
+Maksymalny poziom hałasu
+28 dB
+Maksymalny przepływ powietrza
+68,9 CFM
+Rozmiar wentylatora
+120 x 120 x 25 mm
+Prąd zasilający
+0,12 A
+Podświetlenie
+RGB
+Dodatkowe informacje
+Kolorowy ekran LCD
+Wysokość
+162 mm
+Szerokość
+129 mm
+Głębokość
+138 mm
+Dołączone akcesoria
+Pasta termoprzewodząca
+Zestaw montażowy backplate Intel &amp; AMD
+Zestaw montażowy','29');</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>25</v>
@@ -1101,20 +3116,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
+      <c r="C16" s="1">
+        <v>1369</v>
+      </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="1">
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','15','','5','','','','Chłodzenie Wodne');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Corsair iCUE H150i ELITE LCD XT Black','15','1369','8','Czarny','Rodzaj chłodzenia
+Wodne
+Kompatybilność
+2066
+2011
+1700
+1200
+1156
+1151
+1150
+sTR4
+AM5
+AM4
+Materiał radiatora
+Aluminium
+Liczba wentylatorów
+3x 120 mm
+Kontrola obrotów
+PWM
+Prędkość obrotowa
+550 - 2100 obr./min
+Maksymalny poziom hałasu
+34,1 dB
+Maksymalny przepływ powietrza
+65,6 CFM
+Rozmiar wentylatora
+120 x 120 x 25 mm
+Podświetlenie
+RGB
+Dodatkowe informacje
+Kolorowy ekran LCD
+Waga
+1100 g
+Dołączone akcesoria
+Zestaw montażowy backplate Intel &amp; AMD
+Instrukcja instalacji
+Śrubki montażowe
+Kontroler RGB','27');</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>25</v>
@@ -1123,20 +3190,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
+      <c r="C17" s="1">
+        <v>579</v>
+      </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1">
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','16','','9','','','','Karta Dźwiękowa');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Creative Sound Blaster X AE-5 Plus','16','579','20','Czarny','Typ karty dźwiękowej
+Wewnętrzna
+System dźwięku
+5.1
+Interfejs
+PCI-E
+Procesor dźwięku
+Sound Core3D
+Próbkowanie
+32 bit
+Częstοtliwość próbkowania
+384 kHz
+Stosunek sygnału do szumu (SNR)
+122 dB
+Obsługiwane standardy dźwięku
+Dolby Surround
+DTS Connect
+Rodzaje wejść / wyjść
+Wyjście słuchawkowe/głośnikowe (jack 3,5 mm) - 4 szt.
+Wejście mikrofonowe - 1 szt.
+Wyjście optyczne S/PDIF Toslink - 1 szt.
+Dodatkowe informacje
+Kontroler audio DAC klasy premium
+Dołączone akcesoria
+Skrócona instrukcja obsługi','30');</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>25</v>
@@ -1145,20 +3251,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
+      <c r="C18" s="1">
+        <v>449</v>
+      </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="1">
+        <v>24</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','17','','17','','','','Karta Sieciowa');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('ASUS XG-C100F','17','449','16','Czerwony','Rodzaj
+Przewodowa
+Interfejs
+PCI-E
+Rodzaje wejść / wyjść
+SFP+ - 1 szt.
+Maksymalna prędkość transmisji bezprzewodowej
+do 10000 Mb/s
+Dodatkowe informacje
+Aluminiowy radiator
+QoS','24');</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>25</v>
@@ -1167,20 +3298,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
+      <c r="C19" s="1">
+        <v>229</v>
+      </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1">
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','18','','6','','','','Napęd Optyczny');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('ASUS SDRW-08U5S Slim','18','229','3','Srebrny','Rodzaj napędu
+Zewnętrzny
+Funkcje napędu
+Nagrywanie płyt DVD
+Nagrywanie płyt CD
+Odtwarzanie płyt DVD
+Odtwarzanie płyt CD
+Interfejs
+USB 2.0
+Prędkość zapisu
+DVD±R - 8x
+DVD±R DL - 6x
+DVD-RAM - 5x
+DVD+RW - 8x
+DVD-RW - 6x
+CD-R - 24x
+CD-RW - 24x
+Prędkość odczytu
+DVD-ROM - 8x
+CD-ROM - 24x
+DVD±R - 8x
+DVD±R DL - 8x
+DVD-RAM - 5x
+DVD+RW - 8x
+DVD-RW - 8x
+CD-R - 24x
+CD-RW - 24x
+Czas dostępu
+DVD - 160 ms
+CD - 160 ms
+Wysokość
+12,9 mm
+Szerokość
+135,5 mm
+Głebokość
+140 mm
+Waga
+255 g','26');</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>25</v>
@@ -1189,20 +3372,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
+      <c r="C20" s="1">
+        <v>1119</v>
+      </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1">
+        <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','19','','0','','','','Mikrofon');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('HyperX ProCast ','19','1119','2','Czarny','Przeznaczenie
+Komputerowe
+System mocowania
+Statyw biurkowy
+Rodzaj łączności
+Przewodowa
+Charakterystyka kierunkowości
+Kardioidalna
+Złącze
+XLR - 1 szt.
+Czułość
+-38 dB
+Zasilanie
+Phantom 48V
+Dodatkowe informacje
+Gwint 3/8"
+Gwint 5/8"
+Uchwyt antywstrząsowy
+Filtr górnoprzepustowy - 80 Hz
+Stosunek sygnału do szumu: 75 dB
+Kolor
+Czarny
+Dołączone akcesoria
+Filtr pop
+Instrukcja obsługi
+Adapter do statywu
+Waga
+372 g','27');</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>25</v>
@@ -1211,20 +3436,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
+      <c r="C21" s="1">
+        <v>4239</v>
+      </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="1">
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','20','','8','','','','Drukarka');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('HP DesignJet T230','20','4239','4','Czarny','Przeznaczenie produktu
+Do biura i korporacji
+Zastosowanie
+Rysunki liniowe
+Prezentacje
+Renderingi
+Technologia druku
+Atramentowa, kolorowa
+Obsługiwany typ nośnika
+Papier zwykły
+Obsługiwane formaty nośników
+A4
+A3
+A2
+A1
+24"
+System stałego zasilania atramentem (CISS)
+Nie
+Rozmiar zwoju
+Od 279 do 610 mm
+Rodzaje podajników papieru
+Rolka
+Szybkość druku w kolorze
+do 1,1 str./min
+Maksymalna rozdzielczość druku
+2400 x 1200 dpi
+Maksymalna gramatura papieru
+280 g/m²
+Druk dwustronny (dupleks)
+Brak
+Wersja z WiFi
+Tak
+Interfejsy
+USB
+Wi-Fi
+LAN (Ethernet)
+AirPrint
+Wyświetlacz
+Wbudowany
+Liczba wkładów drukujących
+4
+Dodatkowe informacje
+Drukowanie bezpośrednio ze smartfonów i tabletów
+Automatyczna gilotyna
+Dołączone akcesoria
+Kabel zasilający
+Tusze startowe
+Kolor
+Czarny
+Szerokość
+1013 mm
+Wysokość
+285 mm
+Głębokość
+440 mm
+Waga
+21,5 kg','29');</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>25</v>
@@ -1233,20 +3529,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B22" s="1">
         <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6399</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1">
+        <v>28</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','21','','14','','','','Głośnik');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('Sony BRAVIA Theatre Bar 9 + SA-RS3S','21','6399','14','Czarny','Liczba kanałów
+7.0.2
+Subwoofer
+Brak
+Łączność bezprzewodowa
+Bluetooth
+Wi-Fi
+AirPlay
+Zakrzywiona konstrukcja
+Nie
+Systemy dźwięku
+Dolby Digital
+Dolby Digital Plus
+Dolby True HD
+DTS
+DTS-ES
+Dolby Dual Mono
+Dolby Atmos
+DTS: X
+IMAX Enhanced
+360 Spatial Sound Mapping
+Odtwarzane formaty plików
+AAC
+SBC
+LDAC
+Rodzaje wejść
+HDMI 1 szt.
+Rodzaje wyjść
+HDMI (eARC)
+Funkcje dodatkowe
+Tryb głosowy
+Tryb nocny
+Spotify Connect
+Informacje uzupełniające
+Technologia wirtualnego dźwięku przestrzennego
+Kolor
+Czarny
+Wysokość
+64 mm
+Szerokość
+1300 mm
+Głębokość
+113 mm
+Waga
+5,5 kg
+Dołączone akcesoria
+Kabel HDMI
+Pilot
+Kabel zasilający
+Baterie do pilota
+Uchwyty do montażu na ścianie
+Głośniki
+Podstawa stołowa','28');</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>25</v>
@@ -1255,20 +3618,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
+      <c r="C23" s="1">
+        <v>999</v>
+      </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="1">
+        <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('','22','','4','','','','Słuchawki');</v>
+        <v>INSERT INTO `produkty`(`Nazwa`, `id_typ_produktu`, `Cena`, `Ilosc`, `Kolor`, `Opis`, `id_lokalizacja`) VALUES ('JBL QUANTUM 910 PSP','22','999','20','Biały','Łączność
+Bezprzewodowa i przewodowa
+Rodzaj łączności
+Bluetooth 5.2
+Budowa słuchawek
+Nauszne
+Zamknięte
+System audio
+Stereo 2.0
+Wielokanałowy 7.1 - wirtualne
+Redukcja hałasu
+Aktywna - ANC
+Średnica membrany
+50 mm
+Pasmo przenoszenia słuchawek
+20 ~ 40000 Hz
+Impedancja słuchawek
+32 Ω
+Czułość słuchawek
+111 dB
+Wbudowany mikrofon
+Posiada, przy słuchawce
+Odłączany mikrofon
+Nie
+Charakterystyka mikrofonu
+Jednokierunkowy
+Pasmo przenoszenia mikrofonu
+100 ~ 8000 Hz
+Czułość mikrofonu
+-38 dB
+Zasilanie
+Wbudowany akumulator 1300 mAh
+Czas ładowania
+ok. 3,5h
+Maksymalny czas pracy
+do 47 h (przy wyłączonym podświetleniu)
+Kompatybilność
+Android
+Windows
+Mac OS
+iOS
+Nintendo Switch
+Xbox One
+Xbox Series X
+Xbox Series S
+PlayStation 4
+PlayStation 5
+Połączenie z konsolą
+Bezprzewodowo
+Bezprzewodowo – wymagany adapter USB
+Przewodowo – jack 3,5mm
+Zastosowane technologie
+Certyfikat Hi-Res Audio
+A2DP
+HFP
+QuantumSPHERE 360™
+QuantumSURROUND
+Materiał nauszników
+Pianka
+Skóra naturalna
+Dodatkowe informacje
+Regulowany pałąk
+Podświetlane nauszniki
+Pianka memory w nausznicach
+Miękko wyściełany pałąk
+Przetwornik dynamiczny
+Możliwość wyciszania mikrofonu
+Ruchomy mikrofon
+Funkcja śledzenia ruchu głowy
+Kolor
+Biało-niebieskie
+Dołączone akcesoria
+Odbiornik
+Kabel USB
+Kabel Jack 3,5 mm
+Adapter USB-A - USB-C
+Osłona przeciwwietrzna
+Instrukcja obsługi','21');</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>25</v>
@@ -1278,6 +3733,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Klasa 4/Zeszyt1.xlsx
+++ b/Klasa 4/Zeszyt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\Programowanie\lokalne-systemy-bazy-danych\Klasa 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBCCEB6-18F4-4F08-87F2-63DB90537FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6DED1-2C76-4320-BB83-A15383A8A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73FF9202-0205-4B54-9FCF-56B13495C427}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>);</t>
   </si>
@@ -44,40 +44,52 @@
     <t>id_lokalizacja</t>
   </si>
   <si>
-    <t>Nazwa</t>
-  </si>
-  <si>
-    <t>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES (</t>
-  </si>
-  <si>
-    <t>Magazyn_1</t>
-  </si>
-  <si>
-    <t>Magazyn_2</t>
-  </si>
-  <si>
-    <t>Magazyn_3</t>
-  </si>
-  <si>
-    <t>Magazyn_4</t>
-  </si>
-  <si>
-    <t>Magazyn_5</t>
-  </si>
-  <si>
-    <t>Magazyn_6</t>
-  </si>
-  <si>
-    <t>Magazyn_7</t>
-  </si>
-  <si>
-    <t>Magazyn_8</t>
-  </si>
-  <si>
-    <t>Magazyn_9</t>
-  </si>
-  <si>
-    <t>Magazyn_10</t>
+    <t>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES (</t>
+  </si>
+  <si>
+    <t>id_pracownik menager</t>
+  </si>
+  <si>
+    <t>godziny otwarcia</t>
+  </si>
+  <si>
+    <t>nazwa</t>
+  </si>
+  <si>
+    <t>INSERT INTO `sklepy`(`nazwa`,`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES (</t>
+  </si>
+  <si>
+    <t>09:00 - 18:00</t>
+  </si>
+  <si>
+    <t>09:00 - 18:01</t>
+  </si>
+  <si>
+    <t>09:00 - 18:02</t>
+  </si>
+  <si>
+    <t>09:00 - 18:03</t>
+  </si>
+  <si>
+    <t>09:00 - 18:04</t>
+  </si>
+  <si>
+    <t>09:00 - 18:05</t>
+  </si>
+  <si>
+    <t>09:00 - 18:06</t>
+  </si>
+  <si>
+    <t>09:00 - 18:07</t>
+  </si>
+  <si>
+    <t>09:00 - 18:08</t>
+  </si>
+  <si>
+    <t>09:00 - 18:09</t>
+  </si>
+  <si>
+    <t>TechZone</t>
   </si>
 </sst>
 </file>
@@ -154,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -165,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,225 +515,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394932F4-44BC-4355-8BFC-AE6CD8593D45}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="66" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="66" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="str">
-        <f>_xlfn.CONCAT(F1,"'",A1,"','",B1,"'",G1)</f>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Nazwa','id_lokalizacja');</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="str">
+        <f>_xlfn.CONCAT(H1,"'",A1,"','",B1,"','",C1,"','",D1,"'",I1)</f>
+        <v>INSERT INTO `sklepy`(`nazwa`,`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('nazwa','id_pracownik menager','id_lokalizacja','godziny otwarcia');</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" ref="E2:E11" si="0">_xlfn.CONCAT(H2,"'",A2,"','",B2,"','",C2,"','",D2,"'",I2)</f>
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','1','11','09:00 - 18:00');</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','2','12','09:00 - 18:01');</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','3','13','09:00 - 18:02');</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C10" si="0">_xlfn.CONCAT(F2,"'",A2,"','",B2,"'",G2)</f>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_1','21');</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','4','14','09:00 - 18:03');</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="str">
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_2','22');</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','5','15','09:00 - 18:04');</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="str">
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_3','23');</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','6','16','09:00 - 18:05');</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="str">
+      <c r="C8" s="1">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_4','24');</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','7','17','09:00 - 18:06');</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="str">
+      <c r="C9" s="1">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_5','25');</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','8','18','09:00 - 18:07');</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="str">
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_6','26');</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','9','19','09:00 - 18:08');</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="str">
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_7','27');</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_8','28');</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_9','29');</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f t="shared" ref="C2:C11" si="1">_xlfn.CONCAT(F11,"'",A11,"','",B11,"','","'",G11)</f>
-        <v>INSERT INTO `magazyny`(`Nazwa`, `id_lokalizacja`) VALUES ('Magazyn_10','30','');</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="2"/>
+        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','10','20','09:00 - 18:09');</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Klasa 4/Zeszyt1.xlsx
+++ b/Klasa 4/Zeszyt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\Programowanie\lokalne-systemy-bazy-danych\Klasa 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6DED1-2C76-4320-BB83-A15383A8A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834DABE2-0C7E-41EC-8201-44E65B3CB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73FF9202-0205-4B54-9FCF-56B13495C427}"/>
   </bookViews>
@@ -36,60 +36,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>);</t>
   </si>
   <si>
-    <t>id_lokalizacja</t>
-  </si>
-  <si>
-    <t>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES (</t>
-  </si>
-  <si>
-    <t>id_pracownik menager</t>
-  </si>
-  <si>
-    <t>godziny otwarcia</t>
-  </si>
-  <si>
     <t>nazwa</t>
   </si>
   <si>
-    <t>INSERT INTO `sklepy`(`nazwa`,`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES (</t>
-  </si>
-  <si>
-    <t>09:00 - 18:00</t>
-  </si>
-  <si>
-    <t>09:00 - 18:01</t>
-  </si>
-  <si>
-    <t>09:00 - 18:02</t>
-  </si>
-  <si>
-    <t>09:00 - 18:03</t>
-  </si>
-  <si>
-    <t>09:00 - 18:04</t>
-  </si>
-  <si>
-    <t>09:00 - 18:05</t>
-  </si>
-  <si>
-    <t>09:00 - 18:06</t>
-  </si>
-  <si>
-    <t>09:00 - 18:07</t>
-  </si>
-  <si>
-    <t>09:00 - 18:08</t>
-  </si>
-  <si>
-    <t>09:00 - 18:09</t>
-  </si>
-  <si>
-    <t>TechZone</t>
+    <t>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES (</t>
+  </si>
+  <si>
+    <t>numer telefonu</t>
+  </si>
+  <si>
+    <t>adres e-mail</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>DPD</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>Yodel</t>
+  </si>
+  <si>
+    <t>PostNL</t>
+  </si>
+  <si>
+    <t>Chronopost</t>
+  </si>
+  <si>
+    <t>Aramex</t>
+  </si>
+  <si>
+    <t>fedex@example.com</t>
+  </si>
+  <si>
+    <t>ups@example.com</t>
+  </si>
+  <si>
+    <t>dhl@example.com</t>
+  </si>
+  <si>
+    <t>gls@example.com</t>
+  </si>
+  <si>
+    <t>dpd@example.com</t>
+  </si>
+  <si>
+    <t>tnt@example.com</t>
+  </si>
+  <si>
+    <t>hermes@example.com</t>
+  </si>
+  <si>
+    <t>yodel@example.com</t>
+  </si>
+  <si>
+    <t>postnl@example.com</t>
+  </si>
+  <si>
+    <t>aramex@example.com</t>
   </si>
 </sst>
 </file>
@@ -166,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -178,9 +199,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -535,68 +557,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="4"/>
       <c r="E1" s="3" t="str">
-        <f>_xlfn.CONCAT(H1,"'",A1,"','",B1,"','",C1,"','",D1,"'",I1)</f>
-        <v>INSERT INTO `sklepy`(`nazwa`,`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('nazwa','id_pracownik menager','id_lokalizacja','godziny otwarcia');</v>
+        <f>_xlfn.CONCAT(H1,"'",A1,"','",B1,"','",C1,"'",I1)</f>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('nazwa','numer telefonu','adres e-mail');</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>48501234567</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" ref="E2:E11" si="0">_xlfn.CONCAT(H2,"'",A2,"','",B2,"','",C2,"'",I2)</f>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('FedEx','48501234567','fedex@example.com');</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E11" si="0">_xlfn.CONCAT(H2,"'",A2,"','",B2,"','",C2,"','",D2,"'",I2)</f>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','1','11','09:00 - 18:00');</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="6">
+        <v>48602345678</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','2','12','09:00 - 18:01');</v>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('UPS','48602345678','ups@example.com');</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -606,21 +620,18 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>48600456789</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','3','13','09:00 - 18:02');</v>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('GLS','48600456789','dhl@example.com');</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>2</v>
@@ -630,21 +641,18 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>48503567890</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','4','14','09:00 - 18:03');</v>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('DPD','48503567890','gls@example.com');</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>2</v>
@@ -654,21 +662,18 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>48604678901</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','5','15','09:00 - 18:04');</v>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('TNT','48604678901','dpd@example.com');</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>2</v>
@@ -678,21 +683,18 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>48505789012</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','6','16','09:00 - 18:05');</v>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('Hermes','48505789012','tnt@example.com');</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>2</v>
@@ -702,21 +704,18 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>48606890123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','7','17','09:00 - 18:06');</v>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('Yodel','48606890123','hermes@example.com');</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>2</v>
@@ -726,21 +725,18 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>48507901234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','8','18','09:00 - 18:07');</v>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('PostNL','48507901234','yodel@example.com');</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>2</v>
@@ -750,21 +746,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>48608012345</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','9','19','09:00 - 18:08');</v>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('Chronopost','48608012345','postnl@example.com');</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>2</v>
@@ -774,21 +767,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>48509123456</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `sklepy`(`id_pracownik_menager`, `id_lokalizacja`, `Godziny_otwarcia`) VALUES ('TechZone','10','20','09:00 - 18:09');</v>
+        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('Aramex','48509123456','aramex@example.com');</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>2</v>

--- a/Klasa 4/Zeszyt1.xlsx
+++ b/Klasa 4/Zeszyt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\Programowanie\lokalne-systemy-bazy-danych\Klasa 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834DABE2-0C7E-41EC-8201-44E65B3CB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94EB1C3-3858-44D2-A5E0-620236568570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73FF9202-0205-4B54-9FCF-56B13495C427}"/>
   </bookViews>
@@ -44,45 +44,12 @@
     <t>nazwa</t>
   </si>
   <si>
-    <t>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES (</t>
-  </si>
-  <si>
     <t>numer telefonu</t>
   </si>
   <si>
     <t>adres e-mail</t>
   </si>
   <si>
-    <t>FedEx</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>GLS</t>
-  </si>
-  <si>
-    <t>DPD</t>
-  </si>
-  <si>
-    <t>TNT</t>
-  </si>
-  <si>
-    <t>Hermes</t>
-  </si>
-  <si>
-    <t>Yodel</t>
-  </si>
-  <si>
-    <t>PostNL</t>
-  </si>
-  <si>
-    <t>Chronopost</t>
-  </si>
-  <si>
-    <t>Aramex</t>
-  </si>
-  <si>
     <t>fedex@example.com</t>
   </si>
   <si>
@@ -111,6 +78,39 @@
   </si>
   <si>
     <t>aramex@example.com</t>
+  </si>
+  <si>
+    <t>BLIK</t>
+  </si>
+  <si>
+    <t>Karta Debetowa</t>
+  </si>
+  <si>
+    <t>Karta Kredytowa</t>
+  </si>
+  <si>
+    <t>Przelew Bankowy</t>
+  </si>
+  <si>
+    <t>Gotówka</t>
+  </si>
+  <si>
+    <t>Google Pay</t>
+  </si>
+  <si>
+    <t>Apple Pay</t>
+  </si>
+  <si>
+    <t>Płatność za pobraniem</t>
+  </si>
+  <si>
+    <t>Płatność przy użyciu karty podarunkowej</t>
+  </si>
+  <si>
+    <t>Płatność na raty</t>
+  </si>
+  <si>
+    <t>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES (</t>
   </si>
 </sst>
 </file>
@@ -560,18 +560,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="3" t="str">
-        <f>_xlfn.CONCAT(H1,"'",A1,"','",B1,"','",C1,"'",I1)</f>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('nazwa','numer telefonu','adres e-mail');</v>
+        <f>_xlfn.CONCAT(H1,"'",A1,"'",I1)</f>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('nazwa');</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -579,20 +579,20 @@
     </row>
     <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6">
         <v>48501234567</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E11" si="0">_xlfn.CONCAT(H2,"'",A2,"','",B2,"','",C2,"'",I2)</f>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('FedEx','48501234567','fedex@example.com');</v>
+        <f t="shared" ref="E2:E11" si="0">_xlfn.CONCAT(H2,"'",A2,"'",I2)</f>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('BLIK');</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -600,20 +600,20 @@
     </row>
     <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>48602345678</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('UPS','48602345678','ups@example.com');</v>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('Karta Debetowa');</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>0</v>
@@ -621,20 +621,20 @@
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
         <v>48600456789</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('GLS','48600456789','dhl@example.com');</v>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('Karta Kredytowa');</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>0</v>
@@ -642,20 +642,20 @@
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6">
         <v>48503567890</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('DPD','48503567890','gls@example.com');</v>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('Przelew Bankowy');</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>0</v>
@@ -663,20 +663,20 @@
     </row>
     <row r="6" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6">
         <v>48604678901</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('TNT','48604678901','dpd@example.com');</v>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('Gotówka');</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>0</v>
@@ -684,20 +684,20 @@
     </row>
     <row r="7" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6">
         <v>48505789012</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('Hermes','48505789012','tnt@example.com');</v>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('Google Pay');</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>0</v>
@@ -705,20 +705,20 @@
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6">
         <v>48606890123</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('Yodel','48606890123','hermes@example.com');</v>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('Apple Pay');</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -726,20 +726,20 @@
     </row>
     <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6">
         <v>48507901234</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('PostNL','48507901234','yodel@example.com');</v>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('Płatność za pobraniem');</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -747,20 +747,20 @@
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6">
         <v>48608012345</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('Chronopost','48608012345','postnl@example.com');</v>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('Płatność przy użyciu karty podarunkowej');</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
@@ -768,20 +768,20 @@
     </row>
     <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6">
         <v>48509123456</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `dostawcy`(`Nazwa`, `Numer_telefonu`, `Adres_email`) VALUES ('Aramex','48509123456','aramex@example.com');</v>
+        <v>INSERT INTO `zamowienia`(`id_klienta`, `id_lokalizacja_produktu`, `id_lokalizacja_odbioru`, `id_pracownika`, `id_typ_platnosci`, `id_produkt`, `Kwota_zamowienia`, `Typ_dostawy`) VALUES ('Płatność na raty');</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>0</v>
